--- a/DATA/RoostCounts/RoostsCounts_Lisa.xlsx
+++ b/DATA/RoostCounts/RoostsCounts_Lisa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u7585399/Library/CloudStorage/OneDrive-AustralianNationalUniversity/LISA/CCE_Lab/InnovationTask/Innovation/DATA/RoostCounts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88326FD9-145D-AC4C-ADD7-416A24E5DA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847EF8AB-8284-0444-81E0-74D0A5D9CE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14880" yWindow="1300" windowWidth="15360" windowHeight="16760" xr2:uid="{E9B1A52D-F1E6-1944-AEC7-B32BCAEC322A}"/>
   </bookViews>
@@ -593,8 +593,8 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M14" sqref="M14"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,29 +679,31 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>-35.26947097</v>
+        <v>-35.277708939999997</v>
       </c>
       <c r="C3">
-        <v>149.14286139999999</v>
+        <v>149.11438860000001</v>
       </c>
       <c r="D3" s="2">
-        <v>45122</v>
+        <v>45106</v>
       </c>
       <c r="E3" s="1">
-        <v>0.4375</v>
+        <v>0.39930555555555558</v>
       </c>
       <c r="F3" s="1">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
@@ -713,37 +715,35 @@
         <v>23</v>
       </c>
       <c r="M3">
-        <v>52</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>-35.277708939999997</v>
+        <v>-35.266851559999999</v>
       </c>
       <c r="C4">
-        <v>149.11438860000001</v>
+        <v>149.06904399999999</v>
       </c>
       <c r="D4" s="2">
-        <v>45106</v>
+        <v>45101</v>
       </c>
       <c r="E4" s="1">
-        <v>0.39930555555555558</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="F4" s="1">
-        <v>0.58680555555555558</v>
+        <v>0.4375</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="I4" s="1"/>
       <c r="J4" t="s">
         <v>23</v>
       </c>
@@ -754,493 +754,493 @@
         <v>23</v>
       </c>
       <c r="M4">
-        <v>287</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>-35.2067233</v>
+        <v>-35.26947097</v>
       </c>
       <c r="C5">
-        <v>149.01329469999999</v>
+        <v>149.14286139999999</v>
       </c>
       <c r="D5" s="2">
-        <v>45093</v>
+        <v>45122</v>
       </c>
       <c r="E5" s="1">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="F5" s="1">
-        <v>0.63194444444444442</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>165</v>
-      </c>
-      <c r="N5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-35.228400460000003</v>
+        <v>-35.2067233</v>
       </c>
       <c r="C6">
-        <v>149.02420810000001</v>
+        <v>149.01329469999999</v>
       </c>
       <c r="D6" s="2">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="E6" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="F6" s="1">
-        <v>0.55555555555555558</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
         <v>24</v>
       </c>
       <c r="M6">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="N6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>-35.231039719999998</v>
+        <v>-35.167904999999998</v>
       </c>
       <c r="C7">
-        <v>149.07256190000001</v>
+        <v>149.145004</v>
       </c>
       <c r="D7" s="2">
-        <v>45097</v>
+        <v>45121</v>
       </c>
       <c r="E7" s="1">
-        <v>0.35416666666666669</v>
+        <v>10.4</v>
       </c>
       <c r="F7" s="1">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" t="s">
         <v>23</v>
       </c>
       <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
         <v>24</v>
       </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
       <c r="M7">
-        <v>454</v>
-      </c>
-      <c r="N7" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>-35.255556660000003</v>
+        <v>-35.251771650000002</v>
       </c>
       <c r="C8">
-        <v>149.12845780000001</v>
+        <v>149.16163900000001</v>
       </c>
       <c r="D8" s="2">
-        <v>45101</v>
+        <v>45125</v>
       </c>
       <c r="E8" s="1">
-        <v>0.45833333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="F8" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="J8" t="s">
         <v>23</v>
       </c>
-      <c r="K8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" t="s">
-        <v>23</v>
+      <c r="K8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>41</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-35.258522460000002</v>
+        <v>-35.228400460000003</v>
       </c>
       <c r="C9">
-        <v>149.11498280000001</v>
+        <v>149.02420810000001</v>
       </c>
       <c r="D9" s="2">
-        <v>45101</v>
+        <v>45097</v>
       </c>
       <c r="E9" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F9" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
       <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
         <v>24</v>
       </c>
-      <c r="L9" t="s">
-        <v>23</v>
-      </c>
       <c r="M9">
-        <v>165</v>
+        <v>103</v>
+      </c>
+      <c r="N9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-35.266851559999999</v>
+        <v>-35.231039719999998</v>
       </c>
       <c r="C10">
-        <v>149.06904399999999</v>
+        <v>149.07256190000001</v>
       </c>
       <c r="D10" s="2">
-        <v>45101</v>
+        <v>45097</v>
       </c>
       <c r="E10" s="1">
         <v>0.35416666666666669</v>
       </c>
       <c r="F10" s="1">
-        <v>0.4375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" t="s">
         <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
         <v>23</v>
       </c>
       <c r="M10">
-        <v>176</v>
+        <v>454</v>
+      </c>
+      <c r="N10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-35.282356880000002</v>
+        <v>-35.255556660000003</v>
       </c>
       <c r="C11">
-        <v>149.14652720000001</v>
+        <v>149.12845780000001</v>
       </c>
       <c r="D11" s="2">
-        <v>45110</v>
+        <v>45101</v>
       </c>
       <c r="E11" s="1">
-        <v>0.38194444444444442</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="F11" s="1">
-        <v>0.55208333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
         <v>23</v>
       </c>
       <c r="M11">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B12">
-        <v>-35.237251980000003</v>
+        <v>-35.336988099999999</v>
       </c>
       <c r="C12">
-        <v>149.16114329999999</v>
+        <v>149.1535107</v>
       </c>
       <c r="D12" s="2">
-        <v>45125</v>
+        <v>45167</v>
       </c>
       <c r="E12" s="1">
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F12" s="1">
-        <v>0.57638888888888895</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
         <v>23</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M12">
-        <v>151</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-35.167904999999998</v>
+        <v>-35.258522460000002</v>
       </c>
       <c r="C13">
-        <v>149.145004</v>
+        <v>149.11498280000001</v>
       </c>
       <c r="D13" s="2">
-        <v>45121</v>
+        <v>45101</v>
       </c>
       <c r="E13" s="1">
-        <v>10.4</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="F13" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" t="s">
         <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>130</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14">
-        <v>-35.251771650000002</v>
+        <v>-35.315351360000001</v>
       </c>
       <c r="C14">
-        <v>149.16163900000001</v>
+        <v>149.13711520000001</v>
       </c>
       <c r="D14" s="2">
-        <v>45125</v>
+        <v>45154</v>
       </c>
       <c r="E14" s="1">
-        <v>0.39583333333333331</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="F14" s="1">
-        <v>0.48958333333333331</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>97</v>
-      </c>
-      <c r="N14" s="3"/>
+        <v>320</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-35.315351360000001</v>
+        <v>-35.282356880000002</v>
       </c>
       <c r="C15">
-        <v>149.13711520000001</v>
+        <v>149.14652720000001</v>
       </c>
       <c r="D15" s="2">
-        <v>45154</v>
+        <v>45110</v>
       </c>
       <c r="E15" s="1">
-        <v>0.40277777777777773</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="F15" s="1">
-        <v>0.49305555555555558</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>23</v>
+        <v>59</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M15">
-        <v>320</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-35.336988099999999</v>
+        <v>-35.237251980000003</v>
       </c>
       <c r="C16">
-        <v>149.1535107</v>
+        <v>149.16114329999999</v>
       </c>
       <c r="D16" s="2">
-        <v>45167</v>
+        <v>45125</v>
       </c>
       <c r="E16" s="1">
-        <v>0.55555555555555558</v>
+        <v>0.5</v>
       </c>
       <c r="F16" s="1">
-        <v>0.64583333333333337</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M16">
-        <v>270</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1285,6 +1285,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N17">
+    <sortCondition ref="A3:A17"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>

--- a/DATA/RoostCounts/RoostsCounts_Lisa.xlsx
+++ b/DATA/RoostCounts/RoostsCounts_Lisa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u7585399/Library/CloudStorage/OneDrive-AustralianNationalUniversity/LISA/CCE_Lab/InnovationTask/Innovation/DATA/RoostCounts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847EF8AB-8284-0444-81E0-74D0A5D9CE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9D3CC1-1F47-0B4F-9B2E-9947AF04F85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14880" yWindow="1300" windowWidth="15360" windowHeight="16760" xr2:uid="{E9B1A52D-F1E6-1944-AEC7-B32BCAEC322A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>ROOST</t>
   </si>
@@ -180,12 +180,6 @@
   </si>
   <si>
     <t>10.8 m</t>
-  </si>
-  <si>
-    <t>Uninstalled 10/8/23, all unsolved</t>
-  </si>
-  <si>
-    <t>Lev 3 uninstalled 10/8/23, unsolved</t>
   </si>
   <si>
     <t>10.3 m</t>
@@ -593,8 +587,8 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N21" sqref="N21"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,7 +668,7 @@
       </c>
       <c r="M2" s="4"/>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -836,9 +830,6 @@
       <c r="M6">
         <v>165</v>
       </c>
-      <c r="N6" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -903,7 +894,7 @@
         <v>41</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -945,7 +936,7 @@
         <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -958,9 +949,6 @@
       </c>
       <c r="M9">
         <v>103</v>
-      </c>
-      <c r="N9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -999,9 +987,6 @@
       <c r="M10">
         <v>454</v>
       </c>
-      <c r="N10" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1044,7 +1029,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>-35.336988099999999</v>
@@ -1062,13 +1047,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -1104,7 +1089,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" t="s">
@@ -1140,13 +1125,13 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>23</v>
@@ -1184,7 +1169,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>44</v>
@@ -1225,7 +1210,7 @@
         <v>38</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>42</v>
@@ -1245,7 +1230,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>-35.307310000000001</v>
@@ -1263,10 +1248,10 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
         <v>36</v>
